--- a/biology/Botanique/Friedrich_Wilhelm_Zopf/Friedrich_Wilhelm_Zopf.xlsx
+++ b/biology/Botanique/Friedrich_Wilhelm_Zopf/Friedrich_Wilhelm_Zopf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Wilhelm Zopf est un botaniste prussien, né le 12 décembre 1846 à Roßleben, arrondissement de Querfurt (de) et mort le 24 juin 1909 à Münster, en province de Westphalie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'université de Berlin, il reçoit un doctorat de philosophie en 1878 avec une thèse intitulée Die Conidienfrüchte von Fumano à l’université de Halle. De 1880 à 1883, il est professeur extraordinaire à l'école supérieur d'agriculture de Berlin. Il reçoit son habilitation en 1882 à l'université de Halle. À partir de 1899, il est professeur de botanique et directeur du jardin botanique à l’université de Münster.
 Zopf étudie en particulier les champignons et étudie les méthodes de production de colorants à partir de lichens et de champignons.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1889 : "Über Pilzfarbstoffe", Botanische Zeitung 47 : 53-91
 1878 : Die Conidienfrüchte von Fumago : Mit 8 Taf. Halle Blochmann
